--- a/Reddit_p2.xlsx
+++ b/Reddit_p2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/Police Shooting/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7D541-0BFF-7347-AC8F-AF5199D09095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -511,8 +517,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +530,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -564,17 +577,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -621,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,9 +684,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,6 +736,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -862,15 +929,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="172.5" style="3" customWidth="1"/>
+    <col min="2" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -889,8 +962,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -909,8 +982,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -925,12 +998,12 @@
       <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -949,8 +1022,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -969,8 +1042,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -989,8 +1062,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -1009,8 +1082,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1029,8 +1102,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -1049,8 +1122,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -1069,8 +1142,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
@@ -1089,8 +1162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -1106,11 +1179,11 @@
         <v>124</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -1126,11 +1199,11 @@
         <v>125</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -1146,11 +1219,11 @@
         <v>126</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -1166,11 +1239,11 @@
         <v>127</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -1189,8 +1262,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1209,8 +1282,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
@@ -1229,8 +1302,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
@@ -1249,8 +1322,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
@@ -1269,8 +1342,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
@@ -1289,8 +1362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -1309,8 +1382,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
@@ -1326,11 +1399,11 @@
         <v>135</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
@@ -1349,8 +1422,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
@@ -1369,8 +1442,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
@@ -1389,8 +1462,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
@@ -1409,8 +1482,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
@@ -1429,8 +1502,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
@@ -1449,8 +1522,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
@@ -1469,8 +1542,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
@@ -1486,11 +1559,11 @@
         <v>143</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
@@ -1509,8 +1582,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
@@ -1529,8 +1602,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
@@ -1549,8 +1622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
@@ -1566,11 +1639,11 @@
         <v>147</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
@@ -1586,8 +1659,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
@@ -1606,8 +1679,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
@@ -1623,11 +1696,11 @@
         <v>150</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
@@ -1646,8 +1719,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
@@ -1666,8 +1739,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
@@ -1686,8 +1759,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
@@ -1703,11 +1776,11 @@
         <v>154</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
@@ -1723,11 +1796,11 @@
         <v>155</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
@@ -1746,8 +1819,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
@@ -1766,8 +1839,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
@@ -1783,11 +1856,11 @@
         <v>158</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
@@ -1806,8 +1879,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
@@ -1826,8 +1899,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
@@ -1846,8 +1919,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
@@ -1863,11 +1936,11 @@
         <v>162</v>
       </c>
       <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
